--- a/伏安法excel.xlsx
+++ b/伏安法excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46217F7E-A3EA-4F1E-912A-44CAAA01D2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52028D6E-2FD9-450E-8BC6-9373D04748B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>U/mV</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rx约为110欧姆，采用电压表内接法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电压表内阻/Ω</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,15 +100,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电阻实验数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二极管实验数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以下数据处理适用于使用台式万用表直流电压档和手持万用表40mA/400mA档进行实验，这会影响误差分析阶段的计算结果，其他档位请自行修改公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，预定义为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色格子：书上或ppt上给定的数据，一般不需要改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色格子：自动输出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author: Axolyz</t>
+  </si>
+  <si>
+    <t>Website: https://github.com/Axolyz/fuck-university-physics-experiments. Stars, issues &amp; contributes are welcomed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Licensed by GPL v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 电阻实验数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 电阻数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 二极管实验数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 二极管数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rx约为110欧姆，采用电压表内接法 请保证表格的第一行和最后一行恰好是所有数据中相距最远的两点 这两对数据将被用来计算误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏安法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +159,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +183,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +210,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,19 +225,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="1" xr:uid="{12CD95A1-0F1E-44B1-90A3-61A940C7EC34}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,301 +533,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>21.24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1196.3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <f>(B21-B12)/((C21-C12)-(B21-B12)/A8)</f>
+        <v>108.90387366622603</v>
+      </c>
+      <c r="B25" s="3">
+        <f>(0.02%*B21)+4*0.0001</f>
+        <v>0.23966000000000001</v>
+      </c>
+      <c r="C25" s="3">
+        <f>(1.2%*C21)+3*0.001</f>
+        <v>0.1338</v>
+      </c>
+      <c r="D25" s="3">
+        <f>SQRT((B25/(B21-B12))^2+(C25/(C21-C12))^2)</f>
+        <v>1.2402047883260783E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <f>A25*D25</f>
+        <v>1.3506310558811183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <f>A25</f>
+        <v>108.90387366622603</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <f>A25*D25</f>
+        <v>1.3506310558811183</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="44" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="e">
-        <f>(B15-B6)/((C15-C6)-(B15-B6)/A2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B19" s="2">
-        <f>(0.02%*C15)+4*0.0001</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="C19" s="2">
-        <f>(1.2%*C15)+3*0.001</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D19" s="2" t="e">
-        <f>SQRT((C19/(B15-B6))^2+(B19/(C15-C6))^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="2" t="e">
-        <f>A19*D19</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="e">
-        <f>A19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="e">
-        <f>A19*D19</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>10</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
